--- a/2 KURSAS/skaitgraf1.xlsx
+++ b/2 KURSAS/skaitgraf1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mozzy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dovlen1\Desktop\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C20A878-4A05-4A98-B37D-CD8CE5B0040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D12DC-0E43-4DBD-9107-89DCFBD9D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="7305" windowWidth="28800" windowHeight="15345" xr2:uid="{22C335A5-B752-4DB1-BE7F-2A2A5A84AC2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22C335A5-B752-4DB1-BE7F-2A2A5A84AC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>0001 0001</t>
   </si>
@@ -99,13 +97,37 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +135,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +164,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -266,82 +333,95 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -351,16 +431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -375,35 +455,119 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFF0000"/>
-      </right>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,34 +575,209 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,15 +1112,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3EC90-842D-487F-9DDC-125888EA4519}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:M7"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1">
         <v>5</v>
       </c>
@@ -792,7 +1131,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>7</v>
       </c>
@@ -800,7 +1139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>9</v>
       </c>
@@ -811,22 +1150,22 @@
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -835,7 +1174,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>14</v>
       </c>
@@ -845,18 +1184,18 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="2"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>15</v>
       </c>
@@ -866,24 +1205,24 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="20" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>17</v>
       </c>
@@ -893,24 +1232,24 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="6"/>
+      <c r="H6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>19</v>
       </c>
@@ -920,22 +1259,22 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>27</v>
       </c>
@@ -945,22 +1284,22 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="6"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>30</v>
       </c>
@@ -970,24 +1309,24 @@
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="F9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>31</v>
       </c>
@@ -997,22 +1336,22 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="6"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="20"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>33</v>
       </c>
@@ -1022,22 +1361,22 @@
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="2"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1056,7 +1395,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1075,7 +1414,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>44</v>
       </c>
@@ -1094,70 +1433,393 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="E15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>26</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="E16" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15">
       <c r="A17">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="E17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18">
         <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
+      <c r="E18" s="62">
+        <v>1</v>
+      </c>
+      <c r="F18" s="48">
+        <v>0</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0</v>
+      </c>
+      <c r="I18" s="48">
+        <v>1</v>
+      </c>
+      <c r="J18" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15">
+      <c r="E19" s="64">
+        <v>1</v>
+      </c>
+      <c r="F19" s="50">
+        <v>1</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="50">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50">
+        <v>0</v>
+      </c>
+      <c r="J19" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="E20" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="52">
+        <v>1</v>
+      </c>
+      <c r="G20" s="52">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1</v>
+      </c>
+      <c r="J20" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15">
+      <c r="E21" s="68">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="54">
+        <v>1</v>
+      </c>
+      <c r="H21" s="54">
+        <v>1</v>
+      </c>
+      <c r="I21" s="54">
+        <v>1</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15">
+      <c r="E22" s="70">
+        <v>0</v>
+      </c>
+      <c r="F22" s="71">
+        <v>1</v>
+      </c>
+      <c r="G22" s="71">
+        <v>0</v>
+      </c>
+      <c r="H22" s="71">
+        <v>0</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44">
+        <v>1</v>
+      </c>
+      <c r="H24" s="44">
+        <v>1</v>
+      </c>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="5:10">
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="5:10">
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="5:10">
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="5:10">
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="5:10">
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="5:10">
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="5:10">
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" spans="5:10">
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
